--- a/test/selenium/LoginPageTestCase.xlsx
+++ b/test/selenium/LoginPageTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E01D1-0D22-4808-BCFE-C209C745C310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0ADB60-88C6-4082-8E53-0F92E1CB09C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
-  <si>
-    <t>bxs5836</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Asdf!234</t>
   </si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Incorrect password</t>
+  </si>
+  <si>
+    <t>bxs5837</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,16 +390,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -407,13 +407,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -421,13 +421,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -435,28 +435,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
